--- a/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
@@ -19,9 +19,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段三小段06700000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段01220003地號</t>
+  </si>
+  <si>
+    <t>新北市新店區環河段04070000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區環河段04070001地號</t>
+  </si>
+  <si>
+    <t>8分之1</t>
+  </si>
+  <si>
+    <t>70000分之14230</t>
+  </si>
+  <si>
+    <t>100000分之55</t>
+  </si>
+  <si>
+    <t>李桐豪</t>
+  </si>
+  <si>
+    <t>黃素香</t>
+  </si>
+  <si>
+    <t>83年07月04日</t>
+  </si>
+  <si>
+    <t>96年08月20日</t>
+  </si>
+  <si>
+    <t>102年03月11曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>tmp2e9d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,61 +138,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市文山區萬芳段三小段 0670-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段 0122-0003 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區環河段0407-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區環河段0407-0001 地號</t>
-  </si>
-  <si>
-    <t>8分之1</t>
-  </si>
-  <si>
-    <t>70000分之 14230</t>
-  </si>
-  <si>
-    <t>100000 分 之55</t>
-  </si>
-  <si>
-    <t>李桐豪</t>
-  </si>
-  <si>
-    <t>黃素香</t>
-  </si>
-  <si>
-    <t>83年07月 04日</t>
-  </si>
-  <si>
-    <t>96年08月 20日</t>
-  </si>
-  <si>
-    <t>102 年 03 月11曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段三小段 02068-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段三小段 02073-000 建號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段 00562-000 建號</t>
-  </si>
-  <si>
-    <t>新北市新店區環河段00970-000 建號</t>
+    <t>臺北市文山區萬芳段三小段02068000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段三小段02073000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段00562000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區環河段00970000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -105,7 +156,7 @@
     <t>(超過五年)</t>
   </si>
   <si>
-    <t>12,177,820(陽 台9.24平方公 尺）</t>
+    <t>12177820(陽台9.24平方公尺）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -123,10 +174,10 @@
     <t>福特</t>
   </si>
   <si>
-    <t>96年11月 20日</t>
-  </si>
-  <si>
-    <t>102 年 03 月26曰</t>
+    <t>96年11月20日</t>
+  </si>
+  <si>
+    <t>102年03月26曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -144,19 +195,19 @@
     <t>新店中正郵局(第52支局）</t>
   </si>
   <si>
-    <t>曰盛國際商業銀行內湖分 行</t>
+    <t>曰盛國際商業銀行內湖分行</t>
   </si>
   <si>
     <t>第一商業銀行木柵分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行木柵分 行</t>
+    <t>台北富邦商業銀行木柵分行</t>
   </si>
   <si>
     <t>臺灣銀行木柵分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行西門分 行</t>
+    <t>合作金庫商業銀行西門分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -222,13 +273,10 @@
     <t>抵押</t>
   </si>
   <si>
-    <t>台北富邦銀行 臺北市中山區中山北路二段 50號</t>
-  </si>
-  <si>
-    <t>102年03月 11曰</t>
-  </si>
-  <si>
-    <t>購買房舍貸 款</t>
+    <t>台北富邦銀行臺北市中山區中山北路二段50號</t>
+  </si>
+  <si>
+    <t>購買房舍貸款</t>
   </si>
 </sst>
 </file>
@@ -587,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,109 +663,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>896</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1136.93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>896</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>11362.89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2">
         <v>571837</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>896</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>6.82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <v>343</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>896</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -735,25 +888,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -761,25 +914,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>75.73</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -787,25 +940,25 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>47.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -813,25 +966,25 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>121.16</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -839,25 +992,25 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>57.21</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -875,22 +1028,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -898,19 +1051,19 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>605000</v>
@@ -921,19 +1074,19 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>1600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
@@ -954,19 +1107,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -974,16 +1127,16 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>409902</v>
@@ -994,16 +1147,16 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>373426</v>
@@ -1014,16 +1167,16 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>520229</v>
@@ -1034,16 +1187,16 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>367001</v>
@@ -1054,16 +1207,16 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <v>843898</v>
@@ -1074,16 +1227,16 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>1325</v>
@@ -1104,16 +1257,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1121,16 +1274,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1138,13 +1291,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1153,13 +1306,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1168,13 +1321,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1183,16 +1336,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1200,16 +1353,16 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1227,22 +1380,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1250,22 +1403,22 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>3322620</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市文山區萬芳段三小段06700000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市新店區華城二段01220003地號</t>
@@ -75,126 +78,90 @@
     <t>新北市新店區環河段04070001地號</t>
   </si>
   <si>
+    <t>70000分之14230</t>
+  </si>
+  <si>
+    <t>100000分之55</t>
+  </si>
+  <si>
+    <t>黃素香</t>
+  </si>
+  <si>
+    <t>李桐豪</t>
+  </si>
+  <si>
+    <t>96年08月20日</t>
+  </si>
+  <si>
+    <t>102年03月11曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>tmp2e9d1</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段三小段02068000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>83年07月04日</t>
+  </si>
+  <si>
+    <t>(超過五年)</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段三小段02073000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段00562000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區環河段00970000建號</t>
+  </si>
+  <si>
     <t>8分之1</t>
   </si>
   <si>
-    <t>70000分之14230</t>
-  </si>
-  <si>
-    <t>100000分之55</t>
-  </si>
-  <si>
-    <t>李桐豪</t>
-  </si>
-  <si>
-    <t>黃素香</t>
-  </si>
-  <si>
-    <t>83年07月04日</t>
-  </si>
-  <si>
-    <t>96年08月20日</t>
-  </si>
-  <si>
-    <t>102年03月11曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-26</t>
-  </si>
-  <si>
-    <t>tmp2e9d1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段三小段02068000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段三小段02073000建號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段00562000建號</t>
-  </si>
-  <si>
-    <t>新北市新店區環河段00970000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>(超過五年)</t>
-  </si>
-  <si>
     <t>12177820(陽台9.24平方公尺）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>中華</t>
   </si>
   <si>
+    <t>96年11月20日</t>
+  </si>
+  <si>
     <t>福特</t>
   </si>
   <si>
-    <t>96年11月20日</t>
-  </si>
-  <si>
     <t>102年03月26曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額.或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>新店中正郵局(第52支局）</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>曰盛國際商業銀行內湖分行</t>
   </si>
   <si>
@@ -210,33 +177,18 @@
     <t>合作金庫商業銀行西門分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款.</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>台灣人壽</t>
   </si>
   <si>
     <t>健康安心終身醫療B型</t>
   </si>
   <si>
+    <t>共2筆</t>
+  </si>
+  <si>
     <t>歲歲長泰還本終身</t>
   </si>
   <si>
@@ -250,24 +202,6 @@
   </si>
   <si>
     <t>金如意還本終身</t>
-  </si>
-  <si>
-    <t>共2筆</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>抵押</t>
@@ -635,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,19 +618,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>237</v>
+        <v>1136.93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -705,45 +645,51 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>896</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.203285714285714</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>231.121627142857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1136.93</v>
+        <v>11362.89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -752,125 +698,90 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2">
+        <v>571837</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>896</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00055</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6.2495895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>11362.89</v>
+        <v>6.82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="2">
-        <v>571837</v>
+        <v>343</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>896</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6.82</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2">
-        <v>343</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2">
-        <v>896</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2">
-        <v>17</v>
+      <c r="P4" s="2">
+        <v>0.00055</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.003751</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -888,65 +799,65 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>75.73</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>75.73</v>
+        <v>47.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>47.8</v>
+        <v>121.16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -955,24 +866,24 @@
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>121.16</v>
+        <v>57.21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -981,36 +892,10 @@
         <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2">
-        <v>57.21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1019,358 +904,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2">
-        <v>605000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1600</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>409902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2">
-        <v>373426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
-        <v>520229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
-        <v>367001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
-        <v>843898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1325</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>95</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>96</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1380,45 +913,314 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>605000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3322620</v>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
+      <c r="G2" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1">
+        <v>409902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>373426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>520229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>367001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>843898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3322620</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市文山區萬芳段三小段06700000地號</t>
+  </si>
+  <si>
     <t>新北市新店區華城二段01220003地號</t>
   </si>
   <si>
@@ -78,16 +81,22 @@
     <t>新北市新店區環河段04070001地號</t>
   </si>
   <si>
+    <t>8分之1</t>
+  </si>
+  <si>
     <t>70000分之14230</t>
   </si>
   <si>
     <t>100000分之55</t>
   </si>
   <si>
+    <t>李桐豪</t>
+  </si>
+  <si>
     <t>黃素香</t>
   </si>
   <si>
-    <t>李桐豪</t>
+    <t>83年07月04日</t>
   </si>
   <si>
     <t>96年08月20日</t>
@@ -117,25 +126,19 @@
     <t>臺北市文山區萬芳段三小段02068000建號</t>
   </si>
   <si>
+    <t>臺北市文山區萬芳段三小段02073000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段00562000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區環河段00970000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>83年07月04日</t>
-  </si>
-  <si>
     <t>(超過五年)</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段三小段02073000建號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段00562000建號</t>
-  </si>
-  <si>
-    <t>新北市新店區環河段00970000建號</t>
-  </si>
-  <si>
-    <t>8分之1</t>
   </si>
   <si>
     <t>12177820(陽台9.24平方公尺）</t>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,160 +630,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1136.93</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>896</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.203285714285714</v>
+        <v>0.125</v>
       </c>
       <c r="Q2" s="2">
-        <v>231.121627142857</v>
+        <v>29.625</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>11362.89</v>
+        <v>1136.93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2">
-        <v>571837</v>
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>896</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.00055</v>
+        <v>0.203285714285714</v>
       </c>
       <c r="Q3" s="2">
-        <v>6.2495895</v>
+        <v>231.121627142857</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>6.82</v>
+        <v>11362.89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2">
-        <v>343</v>
+        <v>571837</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>896</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.00055</v>
       </c>
       <c r="Q4" s="2">
+        <v>6.2495895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
+        <v>343</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>896</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00055</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0.003751</v>
       </c>
     </row>
@@ -791,111 +847,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
         <v>75.73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>47.8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>896</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>75.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>896</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5.975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>121.16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>896</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>121.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>121.16</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>57.21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>896</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>57.21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -904,6 +1121,358 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1">
+        <v>605000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
+        <v>605000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>409902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
+        <v>409902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2">
+        <v>373426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>520229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>367001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>843898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -913,314 +1482,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2000</v>
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3322620</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1">
-        <v>605000</v>
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1600</v>
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3322620</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>409902</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>373426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2">
-        <v>520229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>367001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2">
-        <v>843898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1325</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>92</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>93</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>94</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3322620</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -144,13 +144,16 @@
     <t>12177820(陽台9.24平方公尺）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>中華</t>
   </si>
   <si>
+    <t>福特</t>
+  </si>
+  <si>
     <t>96年11月20日</t>
-  </si>
-  <si>
-    <t>福特</t>
   </si>
   <si>
     <t>102年03月26曰</t>
@@ -1122,38 +1125,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1">
-        <v>605000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1162,7 +1186,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1170,8 +1194,29 @@
       <c r="G2" s="2">
         <v>605000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>896</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>36</v>
       </c>
@@ -1185,13 +1230,34 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>896</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1209,13 +1275,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1229,13 +1295,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1249,13 +1315,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1269,13 +1335,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1289,13 +1355,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1309,13 +1375,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1329,13 +1395,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1359,16 +1425,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1376,16 +1442,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1393,10 +1459,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -1408,10 +1474,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -1423,10 +1489,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
@@ -1438,16 +1504,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1455,16 +1521,16 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1482,13 +1548,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>3322620</v>
@@ -1497,7 +1563,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1505,13 +1571,13 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>3322620</v>
@@ -1520,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -144,6 +144,9 @@
     <t>12177820(陽台9.24平方公尺）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
   </si>
   <si>
     <t>102年03月26曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新店中正郵局(第52支局）</t>
@@ -932,7 +938,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>31</v>
@@ -985,7 +991,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
@@ -1038,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>31</v>
@@ -1091,7 +1097,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>31</v>
@@ -1136,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1177,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1186,7 +1192,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1195,7 +1201,7 @@
         <v>605000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1221,7 +1227,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>1600</v>
@@ -1230,7 +1236,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>28</v>
@@ -1239,7 +1245,7 @@
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1275,13 +1281,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1295,13 +1301,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1315,13 +1321,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1335,13 +1341,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1355,13 +1361,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1375,13 +1381,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1395,13 +1401,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1425,16 +1431,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1442,16 +1448,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1459,10 +1465,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -1474,10 +1480,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -1489,10 +1495,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
@@ -1504,16 +1510,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1521,16 +1527,16 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1548,13 +1554,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>3322620</v>
@@ -1563,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1571,13 +1577,13 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>3322620</v>
@@ -1586,7 +1592,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -165,31 +165,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新店中正郵局(第52支局）</t>
   </si>
   <si>
+    <t>曰盛國際商業銀行內湖分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行木柵分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行木柵分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行木柵分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行西門分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款.</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>曰盛國際商業銀行內湖分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行木柵分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行木柵分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行木柵分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行西門分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款.</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>台灣人壽</t>
@@ -1273,13 +1285,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1290,24 +1302,45 @@
         <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1">
-        <v>409902</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1315,19 +1348,40 @@
       <c r="F2" s="2">
         <v>409902</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>896</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1335,19 +1389,40 @@
       <c r="F3" s="2">
         <v>373426</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>896</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1355,19 +1430,40 @@
       <c r="F4" s="2">
         <v>520229</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>896</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1375,19 +1471,40 @@
       <c r="F5" s="2">
         <v>367001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>896</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1395,25 +1512,67 @@
       <c r="F6" s="2">
         <v>843898</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>896</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>1325</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>896</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1431,16 +1590,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1448,16 +1607,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1465,10 +1624,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -1480,10 +1639,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -1495,10 +1654,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
@@ -1510,16 +1669,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1527,16 +1686,16 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1554,13 +1713,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>3322620</v>
@@ -1569,7 +1728,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1577,13 +1736,13 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>3322620</v>
@@ -1592,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -204,15 +204,15 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>台灣人壽</t>
   </si>
   <si>
     <t>健康安心終身醫療B型</t>
   </si>
   <si>
-    <t>共2筆</t>
-  </si>
-  <si>
     <t>歲歲長泰還本終身</t>
   </si>
   <si>
@@ -228,6 +228,15 @@
     <t>金如意還本終身</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押</t>
   </si>
   <si>
@@ -235,6 +244,9 @@
   </si>
   <si>
     <t>購買房舍貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1582,49 +1594,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>896</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
@@ -1632,14 +1680,34 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>896</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>65</v>
@@ -1647,14 +1715,34 @@
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>896</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>66</v>
@@ -1662,14 +1750,34 @@
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>896</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
@@ -1678,15 +1786,33 @@
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2">
+        <v>896</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>68</v>
@@ -1695,7 +1821,25 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <v>896</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1705,44 +1849,65 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3322620</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>3322620</v>
@@ -1751,7 +1916,28 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>896</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
+++ b/legislator/property/output/normal/李桐豪_2013-12-26_財產申報表_tmp2e9d1.xlsx
@@ -11,15 +11,16 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="保險" sheetId="5" r:id="rId5"/>
-    <sheet name="債務" sheetId="6" r:id="rId6"/>
+    <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -202,6 +203,18 @@
   </si>
   <si>
     <t>deposit</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>珠寶材料</t>
+  </si>
+  <si>
+    <t>6000000(製作珠寶飾品之原材料（估計價值））</t>
+  </si>
+  <si>
+    <t>antique</t>
   </si>
   <si>
     <t>company</t>
@@ -1594,6 +1607,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>896</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1602,7 +1701,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1637,16 +1736,16 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
@@ -1672,16 +1771,16 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
@@ -1707,16 +1806,16 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>31</v>
@@ -1742,16 +1841,16 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>31</v>
@@ -1777,16 +1876,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>31</v>
@@ -1812,16 +1911,16 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>31</v>
@@ -1847,7 +1946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -1857,10 +1956,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1901,13 +2000,13 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>3322620</v>
@@ -1916,10 +2015,10 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
